--- a/human_dpcr_primers_v5.xlsx
+++ b/human_dpcr_primers_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F9D727-2E43-4C5A-A56A-048132FE2F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807C28E-6DD0-413A-9D0D-96043EB48BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="25350" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="465" windowWidth="27675" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Primer-Probe Interactions" sheetId="1" r:id="rId1"/>
@@ -131,15 +131,6 @@
     <t xml:space="preserve">tgcttccatagccatca       </t>
   </si>
   <si>
-    <t>cctacacatccagccttgca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ttgcttctgaactgggatggt   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ataagagtaaagagaaaagtcca </t>
-  </si>
-  <si>
     <t xml:space="preserve">tgtgcctcctggaagaatgg    </t>
   </si>
   <si>
@@ -147,6 +138,15 @@
   </si>
   <si>
     <t xml:space="preserve">catttttcggcttcagtaag    </t>
+  </si>
+  <si>
+    <t>tcaagagggatggacaaagga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaagcaggtgaggcggtaag 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cagaagacactcaagaat   	</t>
   </si>
 </sst>
 </file>
@@ -813,7 +813,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -907,13 +907,13 @@
         <v/>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>15</v>
@@ -937,13 +937,13 @@
         <v/>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>16</v>
